--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jclayton\pythonprojects\factorisation-poject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\factorisation\factorisation-poject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C3A2B6-F33E-4A62-8CC5-2DC5334263BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14A6EAB-A74F-4EC5-8863-B71363E0C355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22305" yWindow="-4185" windowWidth="20580" windowHeight="12000" xr2:uid="{766C2DE9-A701-4007-A431-07013E65AA72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{766C2DE9-A701-4007-A431-07013E65AA72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,104 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>primeprod</t>
+  </si>
+  <si>
+    <t>diffprod</t>
+  </si>
+  <si>
+    <t>diffprod%primeprod</t>
+  </si>
+  <si>
+    <t>primeprod-(diffprod%primeprod)</t>
+  </si>
+  <si>
+    <t>1to4</t>
+  </si>
+  <si>
+    <t>4to1</t>
+  </si>
+  <si>
+    <t>0to1</t>
+  </si>
+  <si>
+    <t>1to0</t>
+  </si>
+  <si>
+    <t>0to6</t>
+  </si>
+  <si>
+    <t>6to0</t>
+  </si>
+  <si>
+    <t>1to6</t>
+  </si>
+  <si>
+    <t>6to1</t>
+  </si>
+  <si>
+    <t>0to4</t>
+  </si>
+  <si>
+    <t>4to0</t>
+  </si>
+  <si>
+    <t>0to5</t>
+  </si>
+  <si>
+    <t>5to0</t>
+  </si>
+  <si>
+    <t>0to7</t>
+  </si>
+  <si>
+    <t>7to0</t>
+  </si>
+  <si>
+    <t>4to5</t>
+  </si>
+  <si>
+    <t>5to4</t>
+  </si>
+  <si>
+    <t>4to6</t>
+  </si>
+  <si>
+    <t>6to4</t>
+  </si>
+  <si>
+    <t>4to7</t>
+  </si>
+  <si>
+    <t>7to4</t>
+  </si>
+  <si>
+    <t>5to6</t>
+  </si>
+  <si>
+    <t>6to5</t>
+  </si>
+  <si>
+    <t>5to7</t>
+  </si>
+  <si>
+    <t>7to5</t>
+  </si>
+  <si>
+    <t>6to7</t>
+  </si>
+  <si>
+    <t>7to6</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +164,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,21 +481,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B953C37D-C255-4302-BA62-864B910D65E4}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>23</v>
       </c>
@@ -404,7 +504,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2</v>
       </c>
@@ -429,8 +529,26 @@
       <c r="I2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="V2">
+        <v>11</v>
+      </c>
+      <c r="X2">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -438,133 +556,234 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="T5">
         <v>6</v>
       </c>
-      <c r="I3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
+      <c r="V5">
         <v>5</v>
       </c>
-      <c r="F4">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F7">
         <v>10</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F7">
-        <v>1</v>
       </c>
       <c r="G7">
         <v>8</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>1155</v>
+      </c>
+      <c r="P8">
+        <v>1540</v>
+      </c>
+      <c r="R8">
+        <v>1386</v>
+      </c>
+      <c r="T8">
+        <v>330</v>
+      </c>
+      <c r="V8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>15</v>
       </c>
       <c r="I9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
+      <c r="Q10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <f>1386*3</f>
+        <v>4158</v>
+      </c>
+      <c r="S10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>330</v>
+      </c>
+      <c r="U10" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I11">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>-4158</v>
+      </c>
+      <c r="S11" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>-330</v>
+      </c>
+      <c r="U11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11">
+        <v>-840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="I12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="S12" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12">
+        <f>MOD(6*330,2310)</f>
+        <v>1980</v>
+      </c>
+      <c r="U12" t="s">
+        <v>15</v>
+      </c>
+      <c r="V12">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4849845</v>
       </c>
@@ -592,8 +811,26 @@
       <c r="J13">
         <v>9699690</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>-1980</v>
+      </c>
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13">
+        <v>-1050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -618,8 +855,21 @@
       <c r="I14">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14">
+        <f>1980-330</f>
+        <v>1650</v>
+      </c>
+      <c r="U14" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>B$13*B14</f>
         <v>0</v>
@@ -656,42 +906,36 @@
         <f>MOD(SUM(B15:I15),$J$13)</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <f>MOD(B13,$J$13)</f>
-        <v>4849845</v>
-      </c>
-      <c r="C16">
-        <f>MOD(C13,$J$13)</f>
-        <v>3233230</v>
-      </c>
-      <c r="D16">
-        <f>MOD(D13,$J$13)</f>
-        <v>3879876</v>
-      </c>
-      <c r="E16">
-        <f>MOD(E13,$J$13)</f>
-        <v>8314020</v>
-      </c>
-      <c r="F16">
-        <f>MOD(F13,$J$13)</f>
-        <v>6172530</v>
-      </c>
-      <c r="G16">
-        <f>MOD(G13,$J$13)</f>
-        <v>3730650</v>
-      </c>
-      <c r="H16">
-        <f>MOD(H13,$J$13)</f>
-        <v>9129120</v>
-      </c>
-      <c r="I16">
-        <f>MOD(I13,$J$13)</f>
-        <v>9189180</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15">
+        <v>-1650</v>
+      </c>
+      <c r="U15" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15">
+        <v>-1260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V16">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>18</v>
+      </c>
+      <c r="V17">
+        <v>-1470</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -714,10 +958,16 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="U18" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" ref="B19" si="1">B$13*B18</f>
         <v>0</v>
@@ -748,18 +998,1361 @@
       </c>
       <c r="I19">
         <f t="shared" si="7"/>
-        <v>18378360</v>
+        <v>137837700</v>
       </c>
       <c r="J19">
         <f>MOD(SUM(B19:I19),$J$13)</f>
-        <v>8108100</v>
-      </c>
-      <c r="K19">
-        <f>$J$13-J19</f>
-        <v>1591590</v>
+        <v>1471470</v>
+      </c>
+      <c r="U19" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19">
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>B3*B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:I21" si="8">C3*C$13</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="8"/>
+        <v>9129120</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>18378360</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" ref="B22:I22" si="9">B4*B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="9"/>
+        <v>7759752</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="9"/>
+        <v>16628040</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="9"/>
+        <v>6172530</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="9"/>
+        <v>11191950</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="9"/>
+        <v>18258240</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="9"/>
+        <v>36756720</v>
+      </c>
+      <c r="U22" t="s">
+        <v>23</v>
+      </c>
+      <c r="V22">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" ref="B23:I23" si="10">B5*B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="10"/>
+        <v>11639628</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="10"/>
+        <v>41570100</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="10"/>
+        <v>18517590</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="10"/>
+        <v>14922600</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="10"/>
+        <v>36516480</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="10"/>
+        <v>64324260</v>
+      </c>
+      <c r="U23" t="s">
+        <v>24</v>
+      </c>
+      <c r="V23">
+        <v>-630</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" ref="B24:I24" si="11">B6*B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="11"/>
+        <v>49380240</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="11"/>
+        <v>18653250</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="11"/>
+        <v>54774720</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="11"/>
+        <v>73513440</v>
+      </c>
+      <c r="U24" t="s">
+        <v>25</v>
+      </c>
+      <c r="V24">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" ref="B25:I25" si="12">B7*B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="12"/>
+        <v>61725300</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="12"/>
+        <v>29845200</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="12"/>
+        <v>100420320</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="12"/>
+        <v>82702620</v>
+      </c>
+      <c r="U25" t="s">
+        <v>26</v>
+      </c>
+      <c r="V25">
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" ref="B26:I26" si="13">B8*B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="13"/>
+        <v>33575850</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="13"/>
+        <v>118678560</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="13"/>
+        <v>91891800</v>
+      </c>
+      <c r="U26" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" ref="B27:I27" si="14">B9*B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="14"/>
+        <v>37306500</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="14"/>
+        <v>136936800</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="14"/>
+        <v>101080980</v>
+      </c>
+      <c r="U27" t="s">
+        <v>28</v>
+      </c>
+      <c r="V27">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" ref="B28:I28" si="15">B10*B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="15"/>
+        <v>146065920</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="15"/>
+        <v>110270160</v>
+      </c>
+      <c r="U28" t="s">
+        <v>29</v>
+      </c>
+      <c r="V28">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" ref="B29:I29" si="16">B11*B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="16"/>
+        <v>137837700</v>
+      </c>
+      <c r="U29" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29">
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" ref="B30:I30" si="17">B12*B$13</f>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="17"/>
+        <v>156216060</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>MOD(B21,$J$13)</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:I33" si="18">MOD(C21,$J$13)</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="18"/>
+        <v>9129120</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="18"/>
+        <v>8678670</v>
+      </c>
+      <c r="J33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="V33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" ref="B34:I34" si="19">MOD(B22,$J$13)</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="19"/>
+        <v>7759752</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="19"/>
+        <v>6928350</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="19"/>
+        <v>6172530</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="19"/>
+        <v>1492260</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="19"/>
+        <v>8558550</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="19"/>
+        <v>7657650</v>
+      </c>
+      <c r="M34">
+        <f>X34</f>
+        <v>6</v>
+      </c>
+      <c r="N34">
+        <f>N33*N8</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>P33*P8</f>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f>R33*R8</f>
+        <v>1386</v>
+      </c>
+      <c r="T34">
+        <f>T33*T8</f>
+        <v>1980</v>
+      </c>
+      <c r="V34">
+        <f>V33*V8</f>
+        <v>1260</v>
+      </c>
+      <c r="X34">
+        <f>MOD(SUM(N34:V34),$X$2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" ref="B35:I35" si="20">MOD(B23,$J$13)</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="20"/>
+        <v>1939938</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="20"/>
+        <v>2771340</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="20"/>
+        <v>8817900</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="20"/>
+        <v>5222910</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="20"/>
+        <v>7417410</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="20"/>
+        <v>6126120</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <f>MOD($M$34+R10,$X$2)</f>
+        <v>1854</v>
+      </c>
+      <c r="S35" t="s">
+        <v>7</v>
+      </c>
+      <c r="T35">
+        <f>MOD($M$34+T10,$X$2)</f>
+        <v>336</v>
+      </c>
+      <c r="U35" t="s">
+        <v>13</v>
+      </c>
+      <c r="V35">
+        <f>MOD($M$34+V10,$X$2)</f>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" ref="B36:I36" si="21">MOD(B24,$J$13)</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="21"/>
+        <v>881790</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="21"/>
+        <v>8953560</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="21"/>
+        <v>6276270</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="21"/>
+        <v>5615610</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <f>MOD($M$34+R11,$X$2)</f>
+        <v>468</v>
+      </c>
+      <c r="S36" t="s">
+        <v>8</v>
+      </c>
+      <c r="T36">
+        <f>MOD($M$34+T11,$X$2)</f>
+        <v>1986</v>
+      </c>
+      <c r="U36" t="s">
+        <v>14</v>
+      </c>
+      <c r="V36">
+        <f>MOD($M$34+V11,$X$2)</f>
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" ref="B37:I37" si="22">MOD(B25,$J$13)</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="22"/>
+        <v>3527160</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="22"/>
+        <v>746130</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="22"/>
+        <v>3423420</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="22"/>
+        <v>5105100</v>
+      </c>
+      <c r="S37" t="s">
+        <v>9</v>
+      </c>
+      <c r="T37">
+        <f>MOD($M$34+T12,$X$2)</f>
+        <v>1986</v>
+      </c>
+      <c r="U37" t="s">
+        <v>15</v>
+      </c>
+      <c r="V37">
+        <f>MOD($M$34+V12,$X$2)</f>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" ref="B38:I38" si="23">MOD(B26,$J$13)</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="23"/>
+        <v>4476780</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="23"/>
+        <v>2282280</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="23"/>
+        <v>4594590</v>
+      </c>
+      <c r="S38" t="s">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <f>MOD($M$34+T13,$X$2)</f>
+        <v>336</v>
+      </c>
+      <c r="U38" t="s">
+        <v>16</v>
+      </c>
+      <c r="V38">
+        <f>MOD($M$34+V13,$X$2)</f>
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" ref="B39:I39" si="24">MOD(B27,$J$13)</f>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="24"/>
+        <v>8207430</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="24"/>
+        <v>1141140</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="24"/>
+        <v>4084080</v>
+      </c>
+      <c r="S39" t="s">
+        <v>11</v>
+      </c>
+      <c r="T39">
+        <f>MOD($M$34+T14,$X$2)</f>
+        <v>1656</v>
+      </c>
+      <c r="U39" t="s">
+        <v>9</v>
+      </c>
+      <c r="V39">
+        <f>MOD($M$34+V14,$X$2)</f>
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" ref="B40:I40" si="25">MOD(B28,$J$13)</f>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="25"/>
+        <v>570570</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="25"/>
+        <v>3573570</v>
+      </c>
+      <c r="S40" t="s">
+        <v>12</v>
+      </c>
+      <c r="T40">
+        <f>MOD($M$34+T15,$X$2)</f>
+        <v>666</v>
+      </c>
+      <c r="U40" t="s">
+        <v>10</v>
+      </c>
+      <c r="V40">
+        <f>MOD($M$34+V15,$X$2)</f>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" ref="B41:I41" si="26">MOD(B29,$J$13)</f>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="26"/>
+        <v>2042040</v>
+      </c>
+      <c r="U41" t="s">
+        <v>17</v>
+      </c>
+      <c r="V41">
+        <f>MOD($M$34+V16,$X$2)</f>
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" ref="B42:I42" si="27">MOD(B30,$J$13)</f>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="27"/>
+        <v>1021020</v>
+      </c>
+      <c r="U42" t="s">
+        <v>18</v>
+      </c>
+      <c r="V42">
+        <f>MOD($M$34+V17,$X$2)</f>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="U43" t="s">
+        <v>19</v>
+      </c>
+      <c r="V43">
+        <f t="shared" ref="V43:V54" si="28">MOD($M$34+V18,$X$2)</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="U44" t="s">
+        <v>20</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="28"/>
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>$J$13-B33</f>
+        <v>9699690</v>
+      </c>
+      <c r="C45">
+        <f>$J$13-C33</f>
+        <v>9699690</v>
+      </c>
+      <c r="D45">
+        <f>$J$13-D33</f>
+        <v>9699690</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:I45" si="29">$J$13-E33</f>
+        <v>9699690</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="29"/>
+        <v>9699690</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="29"/>
+        <v>9699690</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="29"/>
+        <v>570570</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="29"/>
+        <v>1021020</v>
+      </c>
+      <c r="J45" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" t="s">
+        <v>21</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="28"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f t="shared" ref="D46:I46" si="30">$J$13-D34</f>
+        <v>1939938</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="30"/>
+        <v>2771340</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="30"/>
+        <v>3527160</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="30"/>
+        <v>8207430</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="30"/>
+        <v>1141140</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="30"/>
+        <v>2042040</v>
+      </c>
+      <c r="U46" t="s">
+        <v>22</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="28"/>
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f t="shared" ref="D47:I47" si="31">$J$13-D35</f>
+        <v>7759752</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="31"/>
+        <v>6928350</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="31"/>
+        <v>881790</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="31"/>
+        <v>4476780</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="31"/>
+        <v>2282280</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="31"/>
+        <v>3573570</v>
+      </c>
+      <c r="U47" t="s">
+        <v>23</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="28"/>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" ref="F48:I48" si="32">$J$13-F36</f>
+        <v>8817900</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="32"/>
+        <v>746130</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="32"/>
+        <v>3423420</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="32"/>
+        <v>4084080</v>
+      </c>
+      <c r="U48" t="s">
+        <v>24</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="28"/>
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" ref="F49:I49" si="33">$J$13-F37</f>
+        <v>6172530</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="33"/>
+        <v>8953560</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="33"/>
+        <v>6276270</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="33"/>
+        <v>4594590</v>
+      </c>
+      <c r="U49" t="s">
+        <v>25</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="28"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <f t="shared" ref="G50:I50" si="34">$J$13-G38</f>
+        <v>5222910</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="34"/>
+        <v>7417410</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="34"/>
+        <v>5105100</v>
+      </c>
+      <c r="U50" t="s">
+        <v>26</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="28"/>
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <f t="shared" ref="G51:I54" si="35">$J$13-G39</f>
+        <v>1492260</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="35"/>
+        <v>8558550</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="35"/>
+        <v>5615610</v>
+      </c>
+      <c r="U51" t="s">
+        <v>27</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="28"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f>$J$13-H40</f>
+        <v>9129120</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="35"/>
+        <v>6126120</v>
+      </c>
+      <c r="U52" t="s">
+        <v>28</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="28"/>
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f t="shared" si="35"/>
+        <v>7657650</v>
+      </c>
+      <c r="U53" t="s">
+        <v>29</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="28"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <f t="shared" si="35"/>
+        <v>8678670</v>
+      </c>
+      <c r="U54" t="s">
+        <v>30</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="28"/>
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>$J$19-B45</f>
+        <v>-8228220</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ref="C56:I56" si="36">$J$19-C45</f>
+        <v>-8228220</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="36"/>
+        <v>-8228220</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="36"/>
+        <v>-8228220</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="36"/>
+        <v>-8228220</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="36"/>
+        <v>-8228220</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="36"/>
+        <v>900900</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="36"/>
+        <v>450450</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f t="shared" ref="D57:I57" si="37">$J$19-D46</f>
+        <v>-468468</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="37"/>
+        <v>-1299870</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="37"/>
+        <v>-2055690</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="37"/>
+        <v>-6735960</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="37"/>
+        <v>330330</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="37"/>
+        <v>-570570</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <f t="shared" ref="D58:I58" si="38">$J$19-D47</f>
+        <v>-6288282</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="38"/>
+        <v>-5456880</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="38"/>
+        <v>589680</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="38"/>
+        <v>-3005310</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="38"/>
+        <v>-810810</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="38"/>
+        <v>-2102100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" ref="F59:I59" si="39">$J$19-F48</f>
+        <v>-7346430</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="39"/>
+        <v>725340</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="39"/>
+        <v>-1951950</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="39"/>
+        <v>-2612610</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" ref="F60:I60" si="40">$J$19-F49</f>
+        <v>-4701060</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="40"/>
+        <v>-7482090</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="40"/>
+        <v>-4804800</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="40"/>
+        <v>-3123120</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <f t="shared" ref="G61:I61" si="41">$J$19-G50</f>
+        <v>-3751440</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="41"/>
+        <v>-5945940</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="41"/>
+        <v>-3633630</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <f t="shared" ref="G62:I62" si="42">$J$19-G51</f>
+        <v>-20790</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="42"/>
+        <v>-7087080</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="42"/>
+        <v>-4144140</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <f t="shared" ref="H63:I63" si="43">$J$19-H52</f>
+        <v>-7657650</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="43"/>
+        <v>-4654650</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <f t="shared" ref="I64:I65" si="44">$J$19-I53</f>
+        <v>-6186180</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <f t="shared" si="44"/>
+        <v>-7207200</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:F7">
+    <sortCondition ref="F3:F7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jclayton\pythonprojects\factorisation-poject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C3A2B6-F33E-4A62-8CC5-2DC5334263BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30427557-B4BB-4940-816D-B95816018B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22305" yWindow="-4185" windowWidth="20580" windowHeight="12000" xr2:uid="{766C2DE9-A701-4007-A431-07013E65AA72}"/>
+    <workbookView xWindow="-180" yWindow="60" windowWidth="20580" windowHeight="12000" xr2:uid="{766C2DE9-A701-4007-A431-07013E65AA72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,381 +382,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B953C37D-C255-4302-BA62-864B910D65E4}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="D1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>23</v>
-      </c>
-      <c r="B1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="1" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="E1">
         <v>3</v>
       </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>11</v>
+      </c>
+      <c r="I1">
+        <v>13</v>
+      </c>
+      <c r="J1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D2">
-        <v>5</v>
+        <v>15015</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>20020</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>6006</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>25740</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>16380</v>
       </c>
       <c r="I2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3">
+        <v>6930</v>
+      </c>
+      <c r="K2">
+        <f>2*3*5*7*11*13</f>
+        <v>30030</v>
+      </c>
+    </row>
+    <row r="3" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>19635</v>
+      </c>
+      <c r="E3">
+        <v>13090</v>
+      </c>
+      <c r="F3">
+        <v>31416</v>
+      </c>
+      <c r="G3">
+        <v>28050</v>
+      </c>
+      <c r="H3">
+        <v>7140</v>
+      </c>
+      <c r="J3">
+        <v>18480</v>
+      </c>
+      <c r="K3">
+        <f>2*3*5*7*11*17</f>
+        <v>39270</v>
+      </c>
+    </row>
+    <row r="4" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>23205</v>
+      </c>
+      <c r="E4">
+        <v>30940</v>
+      </c>
+      <c r="F4">
+        <v>27846</v>
+      </c>
+      <c r="G4">
+        <v>6630</v>
+      </c>
+      <c r="I4">
+        <v>17850</v>
+      </c>
+      <c r="J4">
+        <v>32760</v>
+      </c>
+      <c r="K4">
+        <f>2*3*5*7*13*17</f>
+        <v>46410</v>
+      </c>
+    </row>
+    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>36465</v>
+      </c>
+      <c r="E5">
+        <v>24310</v>
+      </c>
+      <c r="F5">
+        <v>14586</v>
+      </c>
+      <c r="H5">
+        <v>46410</v>
+      </c>
+      <c r="I5">
+        <v>11220</v>
+      </c>
+      <c r="J5">
+        <v>12870</v>
+      </c>
+      <c r="K5">
+        <f>2*3*5*11*13*17</f>
+        <v>72930</v>
+      </c>
+    </row>
+    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>51051</v>
+      </c>
+      <c r="E6">
+        <v>68068</v>
+      </c>
+      <c r="G6">
+        <v>43758</v>
+      </c>
+      <c r="H6">
+        <v>46410</v>
+      </c>
+      <c r="I6">
+        <v>54978</v>
+      </c>
+      <c r="J6">
+        <v>42042</v>
+      </c>
+      <c r="K6">
+        <f>2*3*7*11*13*17</f>
+        <v>102102</v>
+      </c>
+    </row>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>85085</v>
+      </c>
+      <c r="F7">
+        <v>136136</v>
+      </c>
+      <c r="G7">
+        <v>145860</v>
+      </c>
+      <c r="H7">
+        <v>46410</v>
+      </c>
+      <c r="I7">
+        <v>157080</v>
+      </c>
+      <c r="J7">
+        <v>110110</v>
+      </c>
+      <c r="K7">
+        <f>2*5*7*11*13*17</f>
+        <v>170170</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>255255</v>
+      </c>
+      <c r="E8">
+        <v>170170</v>
+      </c>
+      <c r="F8">
+        <v>306306</v>
+      </c>
+      <c r="G8">
+        <v>145860</v>
+      </c>
+      <c r="H8">
+        <v>46410</v>
+      </c>
+      <c r="I8">
+        <v>157080</v>
+      </c>
+      <c r="J8">
+        <v>450450</v>
+      </c>
+      <c r="K8">
+        <f>30030*17</f>
+        <v>510510</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1155</v>
+      </c>
+      <c r="E9">
+        <v>1540</v>
+      </c>
+      <c r="F9">
+        <v>1306</v>
+      </c>
+      <c r="G9">
+        <v>330</v>
+      </c>
+      <c r="H9">
+        <v>210</v>
+      </c>
+      <c r="K9">
+        <f>210*11</f>
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>15</v>
-      </c>
-      <c r="I9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>4849845</v>
-      </c>
-      <c r="C13">
-        <v>3233230</v>
-      </c>
-      <c r="D13">
-        <v>3879876</v>
-      </c>
-      <c r="E13">
-        <v>8314020</v>
-      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
       <c r="F13">
-        <v>6172530</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>3730650</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>9129120</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>9189180</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>9699690</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="Q18">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+    </row>
+    <row r="19" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="Q20">
         <v>2</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-      <c r="I14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <f>B$13*B14</f>
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:I15" si="0">C$13*C14</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>16628040</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>49380240</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>14922600</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>118678560</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>101080980</v>
-      </c>
-      <c r="J15">
-        <f>MOD(SUM(B15:I15),$J$13)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <f>MOD(B13,$J$13)</f>
-        <v>4849845</v>
-      </c>
-      <c r="C16">
-        <f>MOD(C13,$J$13)</f>
-        <v>3233230</v>
-      </c>
-      <c r="D16">
-        <f>MOD(D13,$J$13)</f>
-        <v>3879876</v>
-      </c>
-      <c r="E16">
-        <f>MOD(E13,$J$13)</f>
-        <v>8314020</v>
-      </c>
-      <c r="F16">
-        <f>MOD(F13,$J$13)</f>
-        <v>6172530</v>
-      </c>
-      <c r="G16">
-        <f>MOD(G13,$J$13)</f>
-        <v>3730650</v>
-      </c>
-      <c r="H16">
-        <f>MOD(H13,$J$13)</f>
-        <v>9129120</v>
-      </c>
-      <c r="I16">
-        <f>MOD(I13,$J$13)</f>
-        <v>9189180</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f t="shared" ref="B19" si="1">B$13*B18</f>
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ref="C19" si="2">C$13*C18</f>
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ref="D19" si="3">D$13*D18</f>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ref="E19" si="4">E$13*E18</f>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ref="F19" si="5">F$13*F18</f>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ref="G19" si="6">G$13*G18</f>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ref="H19:I19" si="7">H$13*H18</f>
-        <v>9129120</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="7"/>
-        <v>18378360</v>
-      </c>
-      <c r="J19">
-        <f>MOD(SUM(B19:I19),$J$13)</f>
-        <v>8108100</v>
-      </c>
-      <c r="K19">
-        <f>$J$13-J19</f>
-        <v>1591590</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jclayton\pythonprojects\factorisation-poject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30427557-B4BB-4940-816D-B95816018B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C3A2B6-F33E-4A62-8CC5-2DC5334263BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="60" windowWidth="20580" windowHeight="12000" xr2:uid="{766C2DE9-A701-4007-A431-07013E65AA72}"/>
+    <workbookView xWindow="22305" yWindow="-4185" windowWidth="20580" windowHeight="12000" xr2:uid="{766C2DE9-A701-4007-A431-07013E65AA72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,365 +382,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B953C37D-C255-4302-BA62-864B910D65E4}">
-  <dimension ref="D1:Q20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>23</v>
+      </c>
+      <c r="B1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="F2">
         <v>11</v>
       </c>
-      <c r="I1">
+      <c r="G2">
         <v>13</v>
       </c>
-      <c r="J1">
+      <c r="H2">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D2">
-        <v>15015</v>
-      </c>
-      <c r="E2">
-        <v>20020</v>
-      </c>
-      <c r="F2">
-        <v>6006</v>
-      </c>
-      <c r="G2">
-        <v>25740</v>
-      </c>
-      <c r="H2">
-        <v>16380</v>
-      </c>
       <c r="I2">
-        <v>6930</v>
-      </c>
-      <c r="K2">
-        <f>2*3*5*7*11*13</f>
-        <v>30030</v>
-      </c>
-    </row>
-    <row r="3" spans="4:17" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
-        <v>19635</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>13090</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>31416</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>28050</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>7140</v>
-      </c>
-      <c r="J3">
-        <v>18480</v>
-      </c>
-      <c r="K3">
-        <f>2*3*5*7*11*17</f>
-        <v>39270</v>
-      </c>
-    </row>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4">
-        <v>23205</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>30940</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>27846</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>6630</v>
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
       </c>
       <c r="I4">
-        <v>17850</v>
-      </c>
-      <c r="J4">
-        <v>32760</v>
-      </c>
-      <c r="K4">
-        <f>2*3*5*7*13*17</f>
-        <v>46410</v>
-      </c>
-    </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5">
-        <v>36465</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>24310</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>14586</v>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>46410</v>
+        <v>13</v>
       </c>
       <c r="I5">
-        <v>11220</v>
-      </c>
-      <c r="J5">
-        <v>12870</v>
-      </c>
-      <c r="K5">
-        <f>2*3*5*11*13*17</f>
-        <v>72930</v>
-      </c>
-    </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>51051</v>
-      </c>
-      <c r="E6">
-        <v>68068</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>43758</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>46410</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>54978</v>
-      </c>
-      <c r="J6">
-        <v>42042</v>
-      </c>
-      <c r="K6">
-        <f>2*3*7*11*13*17</f>
-        <v>102102</v>
-      </c>
-    </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>85085</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7">
-        <v>136136</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>145860</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>46410</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>157080</v>
-      </c>
-      <c r="J7">
-        <v>110110</v>
-      </c>
-      <c r="K7">
-        <f>2*5*7*11*13*17</f>
-        <v>170170</v>
-      </c>
-    </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>255255</v>
-      </c>
-      <c r="E8">
-        <v>170170</v>
-      </c>
-      <c r="F8">
-        <v>306306</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G8">
-        <v>145860</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>46410</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>157080</v>
-      </c>
-      <c r="J8">
-        <v>450450</v>
-      </c>
-      <c r="K8">
-        <f>30030*17</f>
-        <v>510510</v>
-      </c>
-    </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>1155</v>
-      </c>
-      <c r="E9">
-        <v>1540</v>
-      </c>
-      <c r="F9">
-        <v>1306</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G9">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>210</v>
-      </c>
-      <c r="K9">
-        <f>210*11</f>
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I12">
         <v>4</v>
       </c>
-      <c r="J12">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>4849845</v>
+      </c>
+      <c r="C13">
+        <v>3233230</v>
+      </c>
+      <c r="D13">
+        <v>3879876</v>
+      </c>
+      <c r="E13">
+        <v>8314020</v>
+      </c>
+      <c r="F13">
+        <v>6172530</v>
+      </c>
+      <c r="G13">
+        <v>3730650</v>
+      </c>
+      <c r="H13">
+        <v>9129120</v>
+      </c>
+      <c r="I13">
+        <v>9189180</v>
+      </c>
+      <c r="J13">
+        <v>9699690</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="Q12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="F13">
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.25">
       <c r="H14">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I14">
-        <v>8</v>
-      </c>
-      <c r="J14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B$13*B14</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:I15" si="0">C$13*C14</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>16628040</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>49380240</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>14922600</v>
+      </c>
       <c r="H15">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>118678560</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>101080980</v>
       </c>
       <c r="J15">
-        <v>8</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.25">
+        <f>MOD(SUM(B15:I15),$J$13)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>MOD(B13,$J$13)</f>
+        <v>4849845</v>
+      </c>
+      <c r="C16">
+        <f>MOD(C13,$J$13)</f>
+        <v>3233230</v>
+      </c>
+      <c r="D16">
+        <f>MOD(D13,$J$13)</f>
+        <v>3879876</v>
+      </c>
+      <c r="E16">
+        <f>MOD(E13,$J$13)</f>
+        <v>8314020</v>
+      </c>
+      <c r="F16">
+        <f>MOD(F13,$J$13)</f>
+        <v>6172530</v>
+      </c>
+      <c r="G16">
+        <f>MOD(G13,$J$13)</f>
+        <v>3730650</v>
+      </c>
+      <c r="H16">
+        <f>MOD(H13,$J$13)</f>
+        <v>9129120</v>
+      </c>
       <c r="I16">
-        <v>12</v>
-      </c>
-      <c r="J16">
-        <v>9</v>
-      </c>
-      <c r="Q16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J18">
-        <v>14</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17" x14ac:dyDescent="0.25">
+        <f>MOD(I13,$J$13)</f>
+        <v>9189180</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" ref="B19" si="1">B$13*B18</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19" si="2">C$13*C18</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19" si="3">D$13*D18</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19" si="4">E$13*E18</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19" si="5">F$13*F18</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19" si="6">G$13*G18</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:I19" si="7">H$13*H18</f>
+        <v>9129120</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>18378360</v>
+      </c>
       <c r="J19">
-        <v>15</v>
-      </c>
-      <c r="Q19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="Q20">
-        <v>2</v>
+        <f>MOD(SUM(B19:I19),$J$13)</f>
+        <v>8108100</v>
+      </c>
+      <c r="K19">
+        <f>$J$13-J19</f>
+        <v>1591590</v>
       </c>
     </row>
   </sheetData>
